--- a/data/Pinnniped_Monitoring_CABR_Data2.xlsx
+++ b/data/Pinnniped_Monitoring_CABR_Data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MARINE\Marine Mammals\Pinniped Monitoring Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LP_Files\RStudio_Files\cabr_pinniped\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E5B04-C069-4C08-87DF-75979B806BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AB1AF-5EFD-4CFB-A2A8-8578D7A793A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{17D13528-A7EB-4C82-8A74-875F1AEE6115}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="14016" xr2:uid="{17D13528-A7EB-4C82-8A74-875F1AEE6115}"/>
   </bookViews>
   <sheets>
     <sheet name="observed data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="57">
   <si>
     <t>date</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>three adult seals were the same ones observeda t the Spur Trail vista</t>
+  </si>
+  <si>
+    <t>people too numerous to count; est</t>
+  </si>
+  <si>
+    <t>people too numerous to count</t>
   </si>
 </sst>
 </file>
@@ -558,30 +564,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405B0637-EF83-461D-AE7E-5772E674DF6B}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44373</v>
       </c>
@@ -675,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44373</v>
       </c>
@@ -722,7 +728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44373</v>
       </c>
@@ -769,7 +775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44380</v>
       </c>
@@ -816,7 +822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44380</v>
       </c>
@@ -863,7 +869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44380</v>
       </c>
@@ -910,7 +916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44394</v>
       </c>
@@ -957,7 +963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44394</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44394</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44395</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44395</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44395</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44401</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44401</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44401</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44409</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44409</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44409</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44416</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44416</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44416</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44429</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44429</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44429</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44430</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44430</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44430</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44437</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44437</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44437</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44444</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44444</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44444</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44445</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44445</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44445</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44542</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44542</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44542</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44535</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44535</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44535</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44549</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44549</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44549</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44545</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44545</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44545</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44543</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44543</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44543</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44541</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44541</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44541</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44551</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44551</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44551</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44521</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44521</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44521</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44514</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44514</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44514</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44515</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44515</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44515</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44507</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44507</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44507</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44577</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44577</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44577</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44594</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44594</v>
       </c>
@@ -3941,7 +3947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44594</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44500</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44500</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44486</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44486</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44486</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44471</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44471</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44471</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44458</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44458</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44458</v>
       </c>
@@ -4529,6 +4535,933 @@
       </c>
       <c r="N88">
         <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G89" s="3">
+        <v>44626.513888888891</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G90" s="3">
+        <v>44626.659722222219</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G91" s="3">
+        <v>44626.631944444445</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G92" s="3">
+        <v>44619.506944444445</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G93" s="3">
+        <v>44619.541666666664</v>
+      </c>
+      <c r="H93">
+        <v>17</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G94" s="3">
+        <v>44619.5625</v>
+      </c>
+      <c r="H94">
+        <v>13</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G95" s="3">
+        <v>44612.513888888891</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>30</v>
+      </c>
+      <c r="O95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G96" s="3">
+        <v>44612.625</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>50</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G97" s="3">
+        <v>44612.645833333336</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="G98" s="3">
+        <v>44584.53125</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G99" s="3">
+        <v>44584.631944444445</v>
+      </c>
+      <c r="H99">
+        <v>13</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="G100" s="3">
+        <v>44584.65625</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G101" s="3">
+        <v>44591.510416666664</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G102" s="3">
+        <v>44591.552083333336</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G103" s="3">
+        <v>44591.572916666664</v>
+      </c>
+      <c r="H103">
+        <v>14</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="G104" s="3">
+        <v>44597.563194444447</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="G105" s="3">
+        <v>44597.580555555556</v>
+      </c>
+      <c r="H105">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="G106" s="3">
+        <v>44597.602777777778</v>
+      </c>
+      <c r="H106">
+        <v>16</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G107" s="3">
+        <v>44604.552083333336</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G108" s="3">
+        <v>44604.579861111109</v>
+      </c>
+      <c r="H108">
+        <v>16</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G109" s="3">
+        <v>44604.614583333336</v>
+      </c>
+      <c r="H109">
+        <v>10</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4546,7 +5479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Pinnniped_Monitoring_CABR_Data2.xlsx
+++ b/data/Pinnniped_Monitoring_CABR_Data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LP_Files\RStudio_Files\cabr_pinniped\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LP_Files\RStudio_Files\cabr_pinniped\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AB1AF-5EFD-4CFB-A2A8-8578D7A793A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C115F60-4F08-462E-9697-5C1DF17AC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="14016" xr2:uid="{17D13528-A7EB-4C82-8A74-875F1AEE6115}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="58">
   <si>
     <t>date</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>people too numerous to count</t>
+  </si>
+  <si>
+    <t>parking lot full</t>
   </si>
 </sst>
 </file>
@@ -564,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405B0637-EF83-461D-AE7E-5772E674DF6B}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M110" sqref="M110"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5464,6 +5467,666 @@
         <v>2</v>
       </c>
     </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>50</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="3">
+        <v>44640.5</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>50</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="G111" s="3">
+        <v>44640.597222222219</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G112" s="3">
+        <v>44640.625</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G113" s="3">
+        <v>44647.5</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G114" s="3">
+        <v>44647.541666666664</v>
+      </c>
+      <c r="H114">
+        <v>27</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G115" s="3">
+        <v>44647.569444444445</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G116" s="3">
+        <v>44654.5</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G117" s="3">
+        <v>44654.652777777781</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G118" s="3">
+        <v>44654.631944444445</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G119" s="3">
+        <v>44675.583333333336</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G120" s="3">
+        <v>44675.614583333336</v>
+      </c>
+      <c r="H120">
+        <v>13</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="G121" s="3">
+        <v>44675.635416666664</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G122" s="3">
+        <v>44682.541666666664</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="G123" s="3">
+        <v>44682.590277777781</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="G124" s="3">
+        <v>44682.618055555555</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O37">
     <sortCondition ref="A2:A37"/>
